--- a/Course 2/SSExcelSource.xlsx
+++ b/Course 2/SSExcelSource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\DWMOOC\MOOCRevision2\Course2\Assignments\Course2Adeeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\database-management\Course 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65DB1B5-D35A-4B51-BFC3-C4EA27C07952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A71423-C4D6-42E5-A28B-A077851ECE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2655" windowWidth="21600" windowHeight="11325"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -59,9 +48,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t xml:space="preserve">Month </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -90,12 +76,15 @@
   </si>
   <si>
     <t>I9999999</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,9 +174,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,26 +209,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,26 +244,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,33 +419,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -505,13 +460,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>111</v>
       </c>
@@ -540,7 +495,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>222</v>
       </c>
@@ -551,13 +506,13 @@
         <v>2222</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -569,7 +524,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>333</v>
       </c>
@@ -580,13 +535,13 @@
         <v>3333</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -598,7 +553,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>444</v>
       </c>
@@ -609,10 +564,10 @@
         <v>4444</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -627,7 +582,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>101</v>
       </c>
@@ -641,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -656,7 +611,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>202</v>
       </c>
@@ -667,10 +622,10 @@
         <v>2002</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -682,7 +637,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>303</v>
       </c>
@@ -693,13 +648,13 @@
         <v>3003</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -711,7 +666,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>404</v>
       </c>
@@ -722,7 +677,7 @@
         <v>4004</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -737,7 +692,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>121</v>
       </c>
@@ -751,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -766,7 +721,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>232</v>
       </c>
@@ -777,13 +732,13 @@
         <v>2332</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -795,7 +750,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>323</v>
       </c>
@@ -806,10 +761,10 @@
         <v>3223</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -824,7 +779,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>434</v>
       </c>
@@ -835,13 +790,13 @@
         <v>4334</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -859,24 +814,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
